--- a/Fox財報資料_整理版_中.xlsx
+++ b/Fox財報資料_整理版_中.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\financial_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33500DA4-E369-40B7-86D7-4CE8786C5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F1E208-4328-442C-BC51-4C5D81E4E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="10410" windowHeight="10095" tabRatio="723" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="0" windowWidth="10800" windowHeight="12900" tabRatio="723" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="損益表-扁平化" sheetId="37" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="761">
   <si>
     <t>Inventory</t>
   </si>
@@ -2480,7 +2480,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -2611,24 +2611,24 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2938,10 +2938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FCFF5-C2FC-4FED-86B7-6AACA23142C5}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2950,7 +2950,7 @@
     <col min="4" max="4" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>676</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5">
+    <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
         <v>680</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>355030</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5">
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>681</v>
       </c>
@@ -2992,18 +2992,18 @@
         <v>245351</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="31.5">
       <c r="A4" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C4" s="6">
         <v>45751</v>
       </c>
       <c r="D4" s="14">
-        <v>109679</v>
+        <v>262129</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5">
@@ -3011,41 +3011,41 @@
         <v>674</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C5" s="6">
         <v>45751</v>
       </c>
       <c r="D5" s="14">
-        <v>262129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="47.25">
+        <v>37331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5">
       <c r="A6" s="7" t="s">
         <v>674</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C6" s="6">
         <v>45751</v>
       </c>
       <c r="D6" s="14">
-        <v>37331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="47.25">
+        <v>32847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5">
       <c r="A7" s="7" t="s">
         <v>674</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C7" s="6">
         <v>45751</v>
       </c>
       <c r="D7" s="14">
-        <v>32847</v>
+        <v>17039</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5">
@@ -3053,503 +3053,223 @@
         <v>674</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C8" s="6">
         <v>45751</v>
       </c>
       <c r="D8" s="14">
-        <v>17039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="47.25">
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5">
       <c r="A9" s="7" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C9" s="6">
         <v>45751</v>
       </c>
       <c r="D9" s="14">
-        <v>10920</v>
+        <v>12934</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.5">
       <c r="A10" s="7" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="C10" s="6">
         <v>45751</v>
       </c>
       <c r="D10" s="14">
-        <v>360266</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5">
       <c r="A11" s="7" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C11" s="6">
         <v>45751</v>
       </c>
       <c r="D11" s="14">
-        <v>-250587</v>
+        <v>-3637</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5">
       <c r="A12" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C12" s="6">
         <v>45751</v>
       </c>
       <c r="D12" s="14">
-        <v>12934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="47.25">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C13" s="6">
-        <v>45751</v>
-      </c>
-      <c r="D13" s="14">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5">
+        <v>669</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="C14" s="6">
-        <v>45751</v>
-      </c>
-      <c r="D14" s="14">
-        <v>-263371</v>
+        <v>682</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5">
       <c r="A15" s="7" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C15" s="6">
-        <v>45751</v>
-      </c>
-      <c r="D15" s="14">
-        <v>-3637</v>
+        <v>684</v>
+      </c>
+      <c r="C15" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5">
       <c r="A16" s="7" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="C16" s="6">
-        <v>45751</v>
-      </c>
-      <c r="D16" s="14">
-        <v>-259734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="63">
+        <v>685</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.5">
       <c r="A17" s="7" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="C17" s="6">
-        <v>45751</v>
-      </c>
-      <c r="D17" s="14">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="63">
+        <v>686</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5">
       <c r="A18" s="7" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="C18" s="6">
-        <v>45751</v>
-      </c>
-      <c r="D18" s="14">
-        <v>-259694</v>
+        <v>687</v>
+      </c>
+      <c r="C18" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5">
       <c r="A19" s="7" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="C19" s="6">
-        <v>45751</v>
-      </c>
-      <c r="D19" s="14">
-        <v>-6.23</v>
+        <v>688</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5">
       <c r="A20" s="7" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="C20" s="6">
-        <v>45751</v>
-      </c>
-      <c r="D20" s="14">
-        <v>-6.23</v>
+        <v>692</v>
+      </c>
+      <c r="C20" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5">
       <c r="A21" s="7" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="C21" s="6">
-        <v>45751</v>
-      </c>
-      <c r="D21" s="14">
-        <v>41711</v>
+        <v>693</v>
+      </c>
+      <c r="C21" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.5">
       <c r="A22" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="C22" s="6">
-        <v>45751</v>
-      </c>
-      <c r="D22" s="14">
-        <v>41711</v>
+        <v>696</v>
+      </c>
+      <c r="C22" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D22" s="15">
+        <v>-1267</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.5">
       <c r="A23" s="7" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>669</v>
+        <v>698</v>
       </c>
       <c r="C23" s="12">
         <v>45380</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31.5">
-      <c r="A24" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="C24" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C25" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31.5">
-      <c r="A26" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="C26" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="47.25">
-      <c r="A27" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="C27" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="47.25">
-      <c r="A28" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="C28" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="31.5">
-      <c r="A29" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="C29" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="47.25">
-      <c r="A30" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="C30" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="31.5">
-      <c r="A31" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C31" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="31.5">
-      <c r="A32" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C32" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="31.5">
-      <c r="A33" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C33" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="47.25">
-      <c r="A34" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C34" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="31.5">
-      <c r="A35" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="C35" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D35" s="15">
-        <v>-4763</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="31.5">
-      <c r="A36" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C36" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D36" s="15">
-        <v>-1267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="31.5">
-      <c r="A37" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="C37" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D37" s="15">
-        <v>-3496</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="63">
-      <c r="A38" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="C38" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D38" s="15">
+      <c r="D23" s="15">
         <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="63">
-      <c r="A39" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="C39" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D39" s="15">
-        <v>-3496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5">
-      <c r="A40" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="C40" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D40" s="15">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="31.5">
-      <c r="A41" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="C41" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D41" s="15">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="31.5">
-      <c r="A42" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="C42" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="31.5">
-      <c r="A43" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="C43" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4780,7 +4500,7 @@
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" thickBot="1">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1">
       <c r="A1" t="s">
         <v>568</v>
       </c>
@@ -4826,7 +4546,7 @@
         <v>355030</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>569</v>
       </c>
@@ -4935,7 +4655,7 @@
         <v>32847</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>573</v>
       </c>
@@ -4981,7 +4701,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="31.5">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>575</v>
       </c>
@@ -5004,7 +4724,7 @@
         <v>360266</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.5">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>576</v>
       </c>
@@ -5027,7 +4747,7 @@
         <v>-250587</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>577</v>
       </c>
@@ -5050,7 +4770,7 @@
         <v>12934</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="47.25">
+    <row r="13" spans="1:8" ht="31.5">
       <c r="A13" t="s">
         <v>578</v>
       </c>
@@ -5073,7 +4793,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.5">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>579</v>
       </c>
@@ -5096,7 +4816,7 @@
         <v>-263371</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.5">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>580</v>
       </c>
@@ -5119,7 +4839,7 @@
         <v>-3637</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.5">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>581</v>
       </c>
@@ -5142,7 +4862,7 @@
         <v>-259734</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="63">
+    <row r="17" spans="1:8" ht="31.5">
       <c r="A17" t="s">
         <v>582</v>
       </c>
@@ -5165,7 +4885,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="63">
+    <row r="18" spans="1:8" ht="31.5">
       <c r="A18" t="s">
         <v>583</v>
       </c>
@@ -5185,7 +4905,7 @@
         <v>-259694</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.5">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>584</v>
       </c>
@@ -5208,7 +4928,7 @@
         <v>-6.23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="31.5">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>585</v>
       </c>
@@ -5231,7 +4951,7 @@
         <v>-6.23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="31.5">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>586</v>
       </c>
@@ -5254,7 +4974,7 @@
         <v>41711</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="31.5">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>587</v>
       </c>
@@ -7154,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9DB743-3980-4C71-94CD-1AA41EA3BF1C}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="20.25" customHeight="1"/>
@@ -7353,7 +7073,7 @@
         <v>535</v>
       </c>
       <c r="C14" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -7367,7 +7087,7 @@
         <v>536</v>
       </c>
       <c r="C15" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -7381,7 +7101,7 @@
         <v>537</v>
       </c>
       <c r="C16" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -7395,7 +7115,7 @@
         <v>538</v>
       </c>
       <c r="C17" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -7409,7 +7129,7 @@
         <v>540</v>
       </c>
       <c r="C18" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
@@ -7423,7 +7143,7 @@
         <v>541</v>
       </c>
       <c r="C19" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
@@ -7437,7 +7157,7 @@
         <v>542</v>
       </c>
       <c r="C20" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
@@ -7451,7 +7171,7 @@
         <v>543</v>
       </c>
       <c r="C21" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -7465,7 +7185,7 @@
         <v>544</v>
       </c>
       <c r="C22" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
@@ -7479,7 +7199,7 @@
         <v>545</v>
       </c>
       <c r="C23" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
@@ -7493,7 +7213,7 @@
         <v>546</v>
       </c>
       <c r="C24" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
@@ -7507,7 +7227,7 @@
         <v>547</v>
       </c>
       <c r="C25" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -8988,8 +8708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA425B78-D26F-4D86-BF50-288BA8CC564B}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9214,7 +8934,7 @@
         <v>549</v>
       </c>
       <c r="C16" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>59</v>
@@ -9228,7 +8948,7 @@
         <v>550</v>
       </c>
       <c r="C17" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>47</v>
@@ -9242,7 +8962,7 @@
         <v>554</v>
       </c>
       <c r="C18" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>21</v>
@@ -9256,7 +8976,7 @@
         <v>552</v>
       </c>
       <c r="C19" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>49</v>
@@ -9270,7 +8990,7 @@
         <v>553</v>
       </c>
       <c r="C20" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>50</v>
@@ -9284,7 +9004,7 @@
         <v>555</v>
       </c>
       <c r="C21" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>51</v>
@@ -9298,7 +9018,7 @@
         <v>557</v>
       </c>
       <c r="C22" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D22" s="16">
         <v>-38</v>
@@ -9312,7 +9032,7 @@
         <v>558</v>
       </c>
       <c r="C23" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D23" s="17"/>
     </row>
@@ -9324,7 +9044,7 @@
         <v>559</v>
       </c>
       <c r="C24" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>27</v>
@@ -9338,7 +9058,7 @@
         <v>560</v>
       </c>
       <c r="C25" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>28</v>
@@ -9352,7 +9072,7 @@
         <v>561</v>
       </c>
       <c r="C26" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>53</v>
@@ -9366,7 +9086,7 @@
         <v>562</v>
       </c>
       <c r="C27" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D27" s="16">
         <v>-13754</v>
@@ -9380,7 +9100,7 @@
         <v>563</v>
       </c>
       <c r="C28" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>54</v>
@@ -9394,7 +9114,7 @@
         <v>564</v>
       </c>
       <c r="C29" s="12">
-        <v>45745</v>
+        <v>45660</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>55</v>
@@ -9967,9 +9687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B79ED6-B575-4841-9FC7-B4F657376EFF}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
@@ -10268,8 +9986,8 @@
       <c r="C21" s="12">
         <v>45751</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>27</v>
+      <c r="D21" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.75" customHeight="1">
@@ -10282,8 +10000,8 @@
       <c r="C22" s="12">
         <v>45751</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>27</v>
+      <c r="D22" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.75" customHeight="1">
@@ -10352,8 +10070,8 @@
       <c r="C27" s="12">
         <v>45751</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>27</v>
+      <c r="D27" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.75" customHeight="1">
@@ -10448,7 +10166,7 @@
         <v>726</v>
       </c>
       <c r="C34" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D34" s="19">
         <v>-3496</v>
@@ -10462,10 +10180,10 @@
         <v>684</v>
       </c>
       <c r="C35" s="12">
-        <v>45745</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>27</v>
+        <v>45380</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.75" customHeight="1">
@@ -10476,7 +10194,7 @@
         <v>728</v>
       </c>
       <c r="C36" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>145</v>
@@ -10490,7 +10208,7 @@
         <v>729</v>
       </c>
       <c r="C37" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D37" s="19">
         <v>-20</v>
@@ -10504,7 +10222,7 @@
         <v>730</v>
       </c>
       <c r="C38" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>129</v>
@@ -10518,7 +10236,7 @@
         <v>731</v>
       </c>
       <c r="C39" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>146</v>
@@ -10532,7 +10250,7 @@
         <v>732</v>
       </c>
       <c r="C40" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>147</v>
@@ -10546,7 +10264,7 @@
         <v>733</v>
       </c>
       <c r="C41" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D41" s="19">
         <v>-1063</v>
@@ -10560,7 +10278,7 @@
         <v>734</v>
       </c>
       <c r="C42" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>148</v>
@@ -10574,7 +10292,7 @@
         <v>735</v>
       </c>
       <c r="C43" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>149</v>
@@ -10588,7 +10306,7 @@
         <v>736</v>
       </c>
       <c r="C44" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>150</v>
@@ -10602,7 +10320,7 @@
         <v>737</v>
       </c>
       <c r="C45" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>151</v>
@@ -10616,7 +10334,7 @@
         <v>738</v>
       </c>
       <c r="C46" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>152</v>
@@ -10630,7 +10348,7 @@
         <v>739</v>
       </c>
       <c r="C47" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D47" s="19">
         <v>-757</v>
@@ -10644,7 +10362,7 @@
         <v>740</v>
       </c>
       <c r="C48" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D48" s="19">
         <v>-37266</v>
@@ -10658,7 +10376,7 @@
         <v>741</v>
       </c>
       <c r="C49" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D49" s="19">
         <v>-2382</v>
@@ -10672,7 +10390,7 @@
         <v>742</v>
       </c>
       <c r="C50" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D50" s="19">
         <v>-1270</v>
@@ -10686,7 +10404,7 @@
         <v>743</v>
       </c>
       <c r="C51" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>153</v>
@@ -10700,7 +10418,7 @@
         <v>744</v>
       </c>
       <c r="C52" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D52" s="19">
         <v>-9907</v>
@@ -10714,7 +10432,7 @@
         <v>746</v>
       </c>
       <c r="C53" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D53" s="19">
         <v>-5041</v>
@@ -10728,7 +10446,7 @@
         <v>747</v>
       </c>
       <c r="C54" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D54" s="19">
         <v>-350</v>
@@ -10742,7 +10460,7 @@
         <v>748</v>
       </c>
       <c r="C55" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D55" s="19">
         <v>-15298</v>
@@ -10756,7 +10474,7 @@
         <v>749</v>
       </c>
       <c r="C56" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>154</v>
@@ -10770,7 +10488,7 @@
         <v>751</v>
       </c>
       <c r="C57" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D57" s="19">
         <v>-48000</v>
@@ -10784,7 +10502,7 @@
         <v>752</v>
       </c>
       <c r="C58" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D58" s="19">
         <v>-3571</v>
@@ -10798,7 +10516,7 @@
         <v>753</v>
       </c>
       <c r="C59" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D59" s="19">
         <v>-25000</v>
@@ -10812,7 +10530,7 @@
         <v>754</v>
       </c>
       <c r="C60" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D60" s="19">
         <v>-1315</v>
@@ -10826,7 +10544,7 @@
         <v>755</v>
       </c>
       <c r="C61" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D61" s="19">
         <v>-7886</v>
@@ -10840,7 +10558,7 @@
         <v>756</v>
       </c>
       <c r="C62" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D62" s="19">
         <v>-227</v>
@@ -10854,7 +10572,7 @@
         <v>758</v>
       </c>
       <c r="C63" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D63" s="19">
         <v>-14059</v>
@@ -10868,7 +10586,7 @@
         <v>759</v>
       </c>
       <c r="C64" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>155</v>
@@ -10882,7 +10600,7 @@
         <v>760</v>
       </c>
       <c r="C65" s="12">
-        <v>45745</v>
+        <v>45380</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>156</v>

--- a/Fox財報資料_整理版_中.xlsx
+++ b/Fox財報資料_整理版_中.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\financial_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F1E208-4328-442C-BC51-4C5D81E4E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D3877-590C-4FA3-B7D5-98A6C3002DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="0" windowWidth="10800" windowHeight="12900" tabRatio="723" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="損益表-扁平化" sheetId="37" r:id="rId1"/>
-    <sheet name="合併損益表" sheetId="5" r:id="rId2"/>
-    <sheet name="資產表-扁平化" sheetId="38" r:id="rId3"/>
-    <sheet name="資產表" sheetId="4" r:id="rId4"/>
-    <sheet name="負債股東權益表-扁平化" sheetId="39" r:id="rId5"/>
-    <sheet name="負債股東權益表" sheetId="33" r:id="rId6"/>
-    <sheet name="現金流量表-扁平化" sheetId="40" r:id="rId7"/>
+    <sheet name="資產表-扁平化" sheetId="38" r:id="rId2"/>
+    <sheet name="負債股東權益表-扁平化" sheetId="39" r:id="rId3"/>
+    <sheet name="現金流量表-扁平化" sheetId="40" r:id="rId4"/>
+    <sheet name="合併損益表" sheetId="5" r:id="rId5"/>
+    <sheet name="資產表" sheetId="4" r:id="rId6"/>
+    <sheet name="負債股東權益表" sheetId="33" r:id="rId7"/>
     <sheet name="合併現金流量表" sheetId="8" r:id="rId8"/>
     <sheet name="資產負債權益總額" sheetId="32" r:id="rId9"/>
     <sheet name="合併綜合損失表" sheetId="6" r:id="rId10"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="762">
   <si>
     <t>Inventory</t>
   </si>
@@ -2472,6 +2472,10 @@
   </si>
   <si>
     <t>期末現金及約當現金</t>
+  </si>
+  <si>
+    <t>本期淨利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2938,19 +2942,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FCFF5-C2FC-4FED-86B7-6AACA23142C5}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="15"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>676</v>
       </c>
@@ -2964,7 +2969,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>680</v>
       </c>
@@ -2978,7 +2983,7 @@
         <v>355030</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>681</v>
       </c>
@@ -2992,7 +2997,7 @@
         <v>245351</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4" s="7" t="s">
         <v>674</v>
       </c>
@@ -3006,7 +3011,7 @@
         <v>262129</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5">
+    <row r="5" spans="1:8" ht="31.5">
       <c r="A5" s="7" t="s">
         <v>674</v>
       </c>
@@ -3020,7 +3025,7 @@
         <v>37331</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5">
+    <row r="6" spans="1:8" ht="31.5">
       <c r="A6" s="7" t="s">
         <v>674</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>32847</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5">
+    <row r="7" spans="1:8" ht="31.5">
       <c r="A7" s="7" t="s">
         <v>674</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>17039</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5">
+    <row r="8" spans="1:8" ht="31.5">
       <c r="A8" s="7" t="s">
         <v>674</v>
       </c>
@@ -3062,7 +3067,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5">
+    <row r="9" spans="1:8" ht="31.5">
       <c r="A9" s="7" t="s">
         <v>691</v>
       </c>
@@ -3076,7 +3081,7 @@
         <v>12934</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.5">
+    <row r="10" spans="1:8" ht="31.5">
       <c r="A10" s="7" t="s">
         <v>691</v>
       </c>
@@ -3090,7 +3095,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5">
+    <row r="11" spans="1:8" ht="31.5">
       <c r="A11" s="7" t="s">
         <v>694</v>
       </c>
@@ -3104,7 +3109,7 @@
         <v>-3637</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5">
+    <row r="12" spans="1:8" ht="31.5">
       <c r="A12" s="7" t="s">
         <v>694</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
         <v>680</v>
       </c>
@@ -3131,8 +3136,15 @@
       <c r="D13" s="15" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="G13" t="s">
+        <v>761</v>
+      </c>
+      <c r="H13" s="15">
+        <f>D2-D3-D4-D5-D6-D7-D8-D9+D10-D11-D12</f>
+        <v>-259994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>681</v>
       </c>
@@ -3145,8 +3157,12 @@
       <c r="D14" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5">
+      <c r="H14" s="15">
+        <f>D13-D14-D16-D17-D18-D19-D20-D21-D22</f>
+        <v>-3496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5">
       <c r="A15" s="7" t="s">
         <v>674</v>
       </c>
@@ -3160,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5">
+    <row r="16" spans="1:8" ht="31.5">
       <c r="A16" s="7" t="s">
         <v>674</v>
       </c>
@@ -4485,816 +4501,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9DB743-3980-4C71-94CD-1AA41EA3BF1C}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B1" s="4">
-        <v>45751</v>
-      </c>
-      <c r="C1" s="4">
-        <v>45380</v>
-      </c>
-      <c r="E1" s="5" t="s">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>670</v>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>708</v>
       </c>
       <c r="B2" t="s">
-        <v>671</v>
-      </c>
-      <c r="C2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="G2" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H2" s="7">
-        <v>355030</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>569</v>
+        <v>535</v>
+      </c>
+      <c r="C2" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>708</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="G3" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H3" s="7">
-        <v>245351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>570</v>
+        <v>536</v>
+      </c>
+      <c r="C3" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>708</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="G4" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H4" s="7">
-        <v>109679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1">
-      <c r="A5" t="s">
-        <v>675</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="G5" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H5" s="7">
-        <v>262129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="A6" t="s">
-        <v>571</v>
+        <v>537</v>
+      </c>
+      <c r="C4" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="G6" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H6" s="7">
-        <v>37331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A7" t="s">
-        <v>572</v>
+        <v>540</v>
+      </c>
+      <c r="C6" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="G7" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H7" s="7">
-        <v>32847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>573</v>
+        <v>541</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="G8" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H8" s="7">
-        <v>17039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A9" t="s">
-        <v>574</v>
+        <v>542</v>
+      </c>
+      <c r="C8" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="G9" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H9" s="7">
-        <v>10920</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>575</v>
+        <v>543</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="G10" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H10" s="7">
-        <v>360266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>576</v>
+        <v>544</v>
+      </c>
+      <c r="C10" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="G11" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H11" s="7">
-        <v>-250587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>577</v>
+        <v>545</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="G12" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="31.5">
-      <c r="A13" t="s">
-        <v>578</v>
+        <v>546</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>721</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="G13" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H13" s="7">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>579</v>
+        <v>547</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>708</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="G14" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H14" s="7">
-        <v>-263371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>580</v>
+        <v>535</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>708</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="G15" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H15" s="7">
-        <v>-3637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>581</v>
+        <v>536</v>
+      </c>
+      <c r="C15" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>708</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="G16" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H16" s="7">
-        <v>-259734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="31.5">
-      <c r="A17" t="s">
-        <v>582</v>
+        <v>537</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>708</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="G17" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H17" s="7">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="31.5">
-      <c r="A18" t="s">
-        <v>583</v>
+        <v>538</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="G18" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H18" s="7">
-        <v>-259694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>584</v>
+        <v>540</v>
+      </c>
+      <c r="C18" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="G19" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H19" s="7">
-        <v>-6.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>585</v>
+        <v>541</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="G20" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H20" s="7">
-        <v>-6.23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>586</v>
+        <v>542</v>
+      </c>
+      <c r="C20" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="G21" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H21" s="7">
-        <v>41711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>587</v>
+        <v>543</v>
+      </c>
+      <c r="C21" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="G22" s="6">
-        <v>45751</v>
-      </c>
-      <c r="H22" s="7">
-        <v>41711</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>588</v>
+        <v>544</v>
+      </c>
+      <c r="C22" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="G23" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H23" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="E24" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="G24" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="E25" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="G25" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="E26" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="G26" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="E27" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="G27" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="E28" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="G28" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="E29" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="G29" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="31.5">
-      <c r="E30" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="G30" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="E31" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="G31" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="E32" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="G32" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8">
-      <c r="E33" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="G33" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" ht="31.5">
-      <c r="E34" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="G34" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8">
-      <c r="E35" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="G35" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8">
-      <c r="E36" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="G36" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8">
-      <c r="E37" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="G37" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" ht="31.5">
-      <c r="E38" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="G38" s="12">
-        <v>45380</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8" ht="31.5">
-      <c r="E39" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="G39" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8">
-      <c r="E40" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="G40" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8">
-      <c r="E41" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="G41" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8">
-      <c r="E42" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="G42" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="5:8">
-      <c r="E43" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="G43" s="12">
-        <v>45380</v>
-      </c>
-      <c r="H43" t="s">
-        <v>111</v>
+        <v>545</v>
+      </c>
+      <c r="C23" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B24" t="s">
+        <v>546</v>
+      </c>
+      <c r="C24" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="B25" t="s">
+        <v>547</v>
+      </c>
+      <c r="C25" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6871,19 +6437,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9DB743-3980-4C71-94CD-1AA41EA3BF1C}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA425B78-D26F-4D86-BF50-288BA8CC564B}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>676</v>
       </c>
@@ -6897,340 +6464,392 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>708</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>722</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C2" s="12">
         <v>45751</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>708</v>
+      <c r="D2" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>722</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="C3" s="12">
         <v>45751</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>708</v>
+      <c r="D3" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>722</v>
       </c>
       <c r="B4" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="C4" s="12">
         <v>45751</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>708</v>
+      <c r="D4" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>722</v>
       </c>
       <c r="B5" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="C5" s="12">
         <v>45751</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>713</v>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>723</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="C6" s="12">
         <v>45751</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>713</v>
+      <c r="D6" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>723</v>
       </c>
       <c r="B7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="C7" s="12">
         <v>45751</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>713</v>
+      <c r="D7" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>724</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="C8" s="12">
         <v>45751</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>717</v>
+      <c r="D8" s="16">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>724</v>
       </c>
       <c r="B9" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="C9" s="12">
         <v>45751</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>717</v>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>724</v>
       </c>
       <c r="B10" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="C10" s="12">
         <v>45751</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>717</v>
+      <c r="D10" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>724</v>
       </c>
       <c r="B11" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="C11" s="12">
         <v>45751</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>717</v>
+      <c r="D11" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>724</v>
       </c>
       <c r="B12" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="C12" s="12">
         <v>45751</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>721</v>
+      <c r="D12" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>724</v>
       </c>
       <c r="B13" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C13" s="12">
         <v>45751</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>708</v>
+      <c r="D13" s="16">
+        <v>-13754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>724</v>
       </c>
       <c r="B14" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="C14" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>708</v>
+        <v>45751</v>
+      </c>
+      <c r="D14" s="16">
+        <v>-4145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>725</v>
       </c>
       <c r="B15" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="C15" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>708</v>
+        <v>45751</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>722</v>
       </c>
       <c r="B16" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="C16" s="12">
         <v>45660</v>
       </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>708</v>
+      <c r="D16" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>722</v>
       </c>
       <c r="B17" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C17" s="12">
         <v>45660</v>
       </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>713</v>
+      <c r="D17" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>722</v>
       </c>
       <c r="B18" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="C18" s="12">
         <v>45660</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>713</v>
+      <c r="D18" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>722</v>
       </c>
       <c r="B19" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C19" s="12">
         <v>45660</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>713</v>
+      <c r="D19" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>723</v>
       </c>
       <c r="B20" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C20" s="12">
         <v>45660</v>
       </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>717</v>
+      <c r="D20" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>723</v>
       </c>
       <c r="B21" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C21" s="12">
         <v>45660</v>
       </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>717</v>
+      <c r="D21" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>724</v>
       </c>
       <c r="B22" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="C22" s="12">
         <v>45660</v>
       </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>717</v>
+      <c r="D22" s="16">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>724</v>
       </c>
       <c r="B23" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C23" s="12">
         <v>45660</v>
       </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>717</v>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>724</v>
       </c>
       <c r="B24" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="C24" s="12">
         <v>45660</v>
       </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>721</v>
+      <c r="D24" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>724</v>
       </c>
       <c r="B25" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C25" s="12">
         <v>45660</v>
       </c>
-      <c r="D25" t="s">
-        <v>46</v>
+      <c r="D25" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>724</v>
+      </c>
+      <c r="B26" t="s">
+        <v>561</v>
+      </c>
+      <c r="C26" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>724</v>
+      </c>
+      <c r="B27" t="s">
+        <v>562</v>
+      </c>
+      <c r="C27" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D27" s="16">
+        <v>-13754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>724</v>
+      </c>
+      <c r="B28" t="s">
+        <v>563</v>
+      </c>
+      <c r="C28" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>725</v>
+      </c>
+      <c r="B29" t="s">
+        <v>564</v>
+      </c>
+      <c r="C29" s="12">
+        <v>45660</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -8099,6 +7718,1756 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B79ED6-B575-4841-9FC7-B4F657376EFF}">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:D65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C2" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D2" s="19">
+        <v>-259734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C3" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C4" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="C5" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D5" s="19">
+        <v>-1369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C6" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C8" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D9" s="19">
+        <v>-783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C10" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D12" s="19">
+        <v>-4736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D13" s="19">
+        <v>-11279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D14" s="19">
+        <v>-1827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C15" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D15" s="19">
+        <v>-1919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D17" s="19">
+        <v>-25168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C18" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D18" s="19">
+        <v>-8968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C20" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D20" s="19">
+        <v>-7180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C21" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="C22" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C23" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D23" s="19">
+        <v>-7180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="C24" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C25" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D25" s="19">
+        <v>-27000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C26" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D26" s="19">
+        <v>-6071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C27" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C28" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D28" s="19">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C29" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="C30" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C31" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D31" s="19">
+        <v>-3073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C32" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C33" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C34" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D34" s="19">
+        <v>-3496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C35" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="C37" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D37" s="19">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C38" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="C39" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A40" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C40" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C41" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D41" s="19">
+        <v>-1063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C42" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A43" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="C43" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A44" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C44" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A45" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="C45" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A46" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C46" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A47" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C47" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D47" s="19">
+        <v>-757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A48" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C48" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D48" s="19">
+        <v>-37266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A49" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="C49" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D49" s="19">
+        <v>-2382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A50" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C50" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D50" s="19">
+        <v>-1270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A51" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="C51" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A52" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C52" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D52" s="19">
+        <v>-9907</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A53" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C53" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D53" s="19">
+        <v>-5041</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="C54" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D54" s="19">
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C55" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D55" s="19">
+        <v>-15298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="C56" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C57" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D57" s="19">
+        <v>-48000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C58" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D58" s="19">
+        <v>-3571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A59" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C59" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D59" s="19">
+        <v>-25000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A60" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C60" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D60" s="19">
+        <v>-1315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A61" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C61" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D61" s="19">
+        <v>-7886</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A62" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="C62" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D62" s="19">
+        <v>-227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A63" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C63" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D63" s="19">
+        <v>-14059</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A64" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C64" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A65" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C65" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" s="4">
+        <v>45751</v>
+      </c>
+      <c r="C1" s="4">
+        <v>45380</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="G2" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H2" s="7">
+        <v>355030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H3" s="7">
+        <v>245351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H4" s="7">
+        <v>109679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1">
+      <c r="A5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="G5" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H5" s="7">
+        <v>262129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
+      <c r="A6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="G6" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H6" s="7">
+        <v>37331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H7" s="7">
+        <v>32847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H8" s="7">
+        <v>17039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="G9" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H10" s="7">
+        <v>360266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="G11" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-250587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H12" s="7">
+        <v>12934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.5">
+      <c r="A13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="G13" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>579</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H14" s="7">
+        <v>-263371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>580</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H15" s="7">
+        <v>-3637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>581</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H16" s="7">
+        <v>-259734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.5">
+      <c r="A17" t="s">
+        <v>582</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="G17" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H17" s="7">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31.5">
+      <c r="A18" t="s">
+        <v>583</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-259694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>584</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H19" s="7">
+        <v>-6.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>585</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="G20" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H20" s="7">
+        <v>-6.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>586</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H21" s="7">
+        <v>41711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>587</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G22" s="6">
+        <v>45751</v>
+      </c>
+      <c r="H22" s="7">
+        <v>41711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>588</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="G23" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H23" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="E24" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G24" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="E25" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G25" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="E26" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="G26" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="E27" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="G27" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="E28" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G28" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="E29" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="G29" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="31.5">
+      <c r="E30" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="G30" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="E31" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G31" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="E32" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="G32" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G33" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="31.5">
+      <c r="E34" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="G34" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G35" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G37" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="31.5">
+      <c r="E38" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="G38" s="12">
+        <v>45380</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" ht="31.5">
+      <c r="E39" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="G39" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="E40" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="G40" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="E41" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="G41" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="E42" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="G42" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="E43" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G43" s="12">
+        <v>45380</v>
+      </c>
+      <c r="H43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
@@ -8704,429 +10073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA425B78-D26F-4D86-BF50-288BA8CC564B}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>722</v>
-      </c>
-      <c r="B2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C2" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>722</v>
-      </c>
-      <c r="B3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C3" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>722</v>
-      </c>
-      <c r="B4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C4" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>722</v>
-      </c>
-      <c r="B5" t="s">
-        <v>552</v>
-      </c>
-      <c r="C5" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>723</v>
-      </c>
-      <c r="B6" t="s">
-        <v>553</v>
-      </c>
-      <c r="C6" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>723</v>
-      </c>
-      <c r="B7" t="s">
-        <v>555</v>
-      </c>
-      <c r="C7" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>724</v>
-      </c>
-      <c r="B8" t="s">
-        <v>557</v>
-      </c>
-      <c r="C8" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D8" s="16">
-        <v>-78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>724</v>
-      </c>
-      <c r="B9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C9" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>724</v>
-      </c>
-      <c r="B10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C10" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>724</v>
-      </c>
-      <c r="B11" t="s">
-        <v>560</v>
-      </c>
-      <c r="C11" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>724</v>
-      </c>
-      <c r="B12" t="s">
-        <v>561</v>
-      </c>
-      <c r="C12" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>724</v>
-      </c>
-      <c r="B13" t="s">
-        <v>562</v>
-      </c>
-      <c r="C13" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D13" s="16">
-        <v>-13754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>724</v>
-      </c>
-      <c r="B14" t="s">
-        <v>563</v>
-      </c>
-      <c r="C14" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D14" s="16">
-        <v>-4145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>725</v>
-      </c>
-      <c r="B15" t="s">
-        <v>564</v>
-      </c>
-      <c r="C15" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>722</v>
-      </c>
-      <c r="B16" t="s">
-        <v>549</v>
-      </c>
-      <c r="C16" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>722</v>
-      </c>
-      <c r="B17" t="s">
-        <v>550</v>
-      </c>
-      <c r="C17" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>722</v>
-      </c>
-      <c r="B18" t="s">
-        <v>554</v>
-      </c>
-      <c r="C18" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>722</v>
-      </c>
-      <c r="B19" t="s">
-        <v>552</v>
-      </c>
-      <c r="C19" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>723</v>
-      </c>
-      <c r="B20" t="s">
-        <v>553</v>
-      </c>
-      <c r="C20" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>723</v>
-      </c>
-      <c r="B21" t="s">
-        <v>555</v>
-      </c>
-      <c r="C21" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>724</v>
-      </c>
-      <c r="B22" t="s">
-        <v>557</v>
-      </c>
-      <c r="C22" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D22" s="16">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>724</v>
-      </c>
-      <c r="B23" t="s">
-        <v>558</v>
-      </c>
-      <c r="C23" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>724</v>
-      </c>
-      <c r="B24" t="s">
-        <v>559</v>
-      </c>
-      <c r="C24" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>724</v>
-      </c>
-      <c r="B25" t="s">
-        <v>560</v>
-      </c>
-      <c r="C25" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>724</v>
-      </c>
-      <c r="B26" t="s">
-        <v>561</v>
-      </c>
-      <c r="C26" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>724</v>
-      </c>
-      <c r="B27" t="s">
-        <v>562</v>
-      </c>
-      <c r="C27" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D27" s="16">
-        <v>-13754</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>724</v>
-      </c>
-      <c r="B28" t="s">
-        <v>563</v>
-      </c>
-      <c r="C28" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>725</v>
-      </c>
-      <c r="B29" t="s">
-        <v>564</v>
-      </c>
-      <c r="C29" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61BD0DD-788F-4944-9E3A-3AB5E7FF06DB}">
   <dimension ref="A1:L29"/>
   <sheetViews>
@@ -9675,935 +10622,6 @@
       </c>
       <c r="L29" t="s">
         <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B79ED6-B575-4841-9FC7-B4F657376EFF}">
-  <dimension ref="A1:D65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C2" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D2" s="19">
-        <v>-259734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="C3" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="C4" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C5" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D5" s="19">
-        <v>-1369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="C6" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="C7" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="C8" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="C9" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D9" s="19">
-        <v>-783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="C10" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="C11" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="C12" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D12" s="19">
-        <v>-4736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="C13" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D13" s="19">
-        <v>-11279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="C14" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D14" s="19">
-        <v>-1827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="C15" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D15" s="19">
-        <v>-1919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="C16" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="C17" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D17" s="19">
-        <v>-25168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="C18" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D18" s="19">
-        <v>-8968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="C19" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="C20" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D20" s="19">
-        <v>-7180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="C21" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="C22" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="C23" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D23" s="19">
-        <v>-7180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="C24" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="C25" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D25" s="19">
-        <v>-27000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="C26" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D26" s="19">
-        <v>-6071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="C27" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="C28" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D28" s="19">
-        <v>-580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="C29" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="C30" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="C31" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D31" s="19">
-        <v>-3073</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="C32" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="C33" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C34" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D34" s="19">
-        <v>-3496</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="C35" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="C36" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C37" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D37" s="19">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="C38" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="C39" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="C40" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="C41" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D41" s="19">
-        <v>-1063</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="C42" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="C43" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="C44" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="C45" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="C46" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="C47" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D47" s="19">
-        <v>-757</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="C48" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D48" s="19">
-        <v>-37266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="C49" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D49" s="19">
-        <v>-2382</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="C50" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D50" s="19">
-        <v>-1270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="C51" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="C52" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D52" s="19">
-        <v>-9907</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="C53" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D53" s="19">
-        <v>-5041</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="C54" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D54" s="19">
-        <v>-350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="C55" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D55" s="19">
-        <v>-15298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="C56" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="C57" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D57" s="19">
-        <v>-48000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="C58" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D58" s="19">
-        <v>-3571</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="C59" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D59" s="19">
-        <v>-25000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A60" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="C60" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D60" s="19">
-        <v>-1315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="C61" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D61" s="19">
-        <v>-7886</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A62" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="C62" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D62" s="19">
-        <v>-227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A63" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="C63" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D63" s="19">
-        <v>-14059</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A64" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="C64" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="C65" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Fox財報資料_整理版_中.xlsx
+++ b/Fox財報資料_整理版_中.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\financial_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D3877-590C-4FA3-B7D5-98A6C3002DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B53423-7120-42C7-9F76-977150749F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="損益表-扁平化" sheetId="37" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="761">
   <si>
     <t>Inventory</t>
   </si>
@@ -2472,10 +2472,6 @@
   </si>
   <si>
     <t>期末現金及約當現金</t>
-  </si>
-  <si>
-    <t>本期淨利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2942,10 +2938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FCFF5-C2FC-4FED-86B7-6AACA23142C5}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3136,13 +3132,7 @@
       <c r="D13" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="G13" t="s">
-        <v>761</v>
-      </c>
-      <c r="H13" s="15">
-        <f>D2-D3-D4-D5-D6-D7-D8-D9+D10-D11-D12</f>
-        <v>-259994</v>
-      </c>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
@@ -3157,10 +3147,7 @@
       <c r="D14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="15">
-        <f>D13-D14-D16-D17-D18-D19-D20-D21-D22</f>
-        <v>-3496</v>
-      </c>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="31.5">
       <c r="A15" s="7" t="s">
@@ -3286,6 +3273,127 @@
       </c>
       <c r="D23" s="15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C24" s="12">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C25" s="12">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5">
+      <c r="A26" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C26" s="12">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5">
+      <c r="A27" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C27" s="12">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.5">
+      <c r="A28" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C28" s="12">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.5">
+      <c r="A29" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C29" s="12">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.5">
+      <c r="A30" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C30" s="12">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.5">
+      <c r="A31" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C31" s="12">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.5">
+      <c r="A32" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C32" s="12">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.5">
+      <c r="A33" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C33" s="12">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.5">
+      <c r="A34" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="C34" s="12">
+        <v>45660</v>
       </c>
     </row>
   </sheetData>
@@ -8652,8 +8760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/Fox財報資料_整理版_中.xlsx
+++ b/Fox財報資料_整理版_中.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\financial_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B53423-7120-42C7-9F76-977150749F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A0A6C9-2472-4F33-AE66-38CBF59749F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="723" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="損益表-扁平化" sheetId="37" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="818">
   <si>
     <t>Inventory</t>
   </si>
@@ -2472,6 +2472,178 @@
   </si>
   <si>
     <t>期末現金及約當現金</t>
+  </si>
+  <si>
+    <t>164,943</t>
+  </si>
+  <si>
+    <t>353,980</t>
+  </si>
+  <si>
+    <t>176,957</t>
+  </si>
+  <si>
+    <t>237,355</t>
+  </si>
+  <si>
+    <t>99,797</t>
+  </si>
+  <si>
+    <t>20,692</t>
+  </si>
+  <si>
+    <t>637,579</t>
+  </si>
+  <si>
+    <t>271,563</t>
+  </si>
+  <si>
+    <t>178,046</t>
+  </si>
+  <si>
+    <t>25,014</t>
+  </si>
+  <si>
+    <t>12,768</t>
+  </si>
+  <si>
+    <t>1,393,921</t>
+  </si>
+  <si>
+    <t>970,345</t>
+  </si>
+  <si>
+    <t>139,857</t>
+  </si>
+  <si>
+    <t>121,207</t>
+  </si>
+  <si>
+    <t>60,314</t>
+  </si>
+  <si>
+    <t>44,528</t>
+  </si>
+  <si>
+    <t>54,942</t>
+  </si>
+  <si>
+    <t>1,716</t>
+  </si>
+  <si>
+    <t>(5,500)</t>
+  </si>
+  <si>
+    <t>(38)</t>
+  </si>
+  <si>
+    <t>資本公積</t>
+  </si>
+  <si>
+    <t>庫藏股（890股）</t>
+  </si>
+  <si>
+    <t>累積其他綜合損益</t>
+  </si>
+  <si>
+    <t>保留盈餘</t>
+  </si>
+  <si>
+    <t>存貨準備提列</t>
+  </si>
+  <si>
+    <t>股份基礎薪酬</t>
+  </si>
+  <si>
+    <t>併購存貨價值攤銷</t>
+  </si>
+  <si>
+    <t>貸款費用攤銷</t>
+  </si>
+  <si>
+    <t>先前掉期結算遞延收益攤銷</t>
+  </si>
+  <si>
+    <t>利率掉期結算現金流入（流出）</t>
+  </si>
+  <si>
+    <t>處分不動產設備損失（收益）</t>
+  </si>
+  <si>
+    <t>營業活動提供之現金淨額</t>
+  </si>
+  <si>
+    <t>併購業務（扣除取得現金）</t>
+  </si>
+  <si>
+    <t>外匯避險結算款</t>
+  </si>
+  <si>
+    <t>其他資產購置</t>
+  </si>
+  <si>
+    <t>不動產、廠房及設備購置</t>
+  </si>
+  <si>
+    <t>投資活動使用現金淨額</t>
+  </si>
+  <si>
+    <t>信用額度淨取得款</t>
+  </si>
+  <si>
+    <t>循環信貸還款</t>
+  </si>
+  <si>
+    <t>債務發行收入</t>
+  </si>
+  <si>
+    <t>定期貸款償還</t>
+  </si>
+  <si>
+    <t>普通股買回與註銷</t>
+  </si>
+  <si>
+    <t>股票薪酬計劃買回淨額</t>
+  </si>
+  <si>
+    <t>債務發行及修改遞延成本</t>
+  </si>
+  <si>
+    <t>匯率變動對現金及約當現金影響</t>
+  </si>
+  <si>
+    <t>現金及約當現金淨變動</t>
+  </si>
+  <si>
+    <t>籌資活動淨現金流入（流出）</t>
+  </si>
+  <si>
+    <t>淨利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流動負債</t>
+  </si>
+  <si>
+    <t>應付帳款</t>
+  </si>
+  <si>
+    <t>應計費用</t>
+  </si>
+  <si>
+    <t>一年到期長期負債</t>
+  </si>
+  <si>
+    <t>非流動負債</t>
+  </si>
+  <si>
+    <t>循環信貸（短期借款）</t>
+  </si>
+  <si>
+    <t>A類貸款（非流動部分）</t>
+  </si>
+  <si>
+    <t>其他負債</t>
   </si>
 </sst>
 </file>
@@ -2579,7 +2751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2625,15 +2797,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2938,10 +3111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FCFF5-C2FC-4FED-86B7-6AACA23142C5}">
-  <dimension ref="A1:H34"/>
+  <sheetPr codeName="工作表1"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3285,6 +3459,9 @@
       <c r="C24" s="12">
         <v>45660</v>
       </c>
+      <c r="D24" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
@@ -3296,16 +3473,22 @@
       <c r="C25" s="12">
         <v>45660</v>
       </c>
+      <c r="D25" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="31.5">
       <c r="A26" s="7" t="s">
         <v>674</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C26" s="12">
         <v>45660</v>
+      </c>
+      <c r="D26" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.5">
@@ -3313,10 +3496,13 @@
         <v>674</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C27" s="12">
         <v>45660</v>
+      </c>
+      <c r="D27" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.5">
@@ -3324,10 +3510,13 @@
         <v>674</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C28" s="12">
         <v>45660</v>
+      </c>
+      <c r="D28" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.5">
@@ -3335,21 +3524,27 @@
         <v>674</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C29" s="12">
         <v>45660</v>
       </c>
+      <c r="D29" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="31.5">
       <c r="A30" s="7" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C30" s="12">
         <v>45660</v>
+      </c>
+      <c r="D30" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31.5">
@@ -3357,43 +3552,41 @@
         <v>691</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C31" s="12">
         <v>45660</v>
       </c>
+      <c r="D31" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="31.5">
       <c r="A32" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C32" s="12">
         <v>45660</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="31.5">
+      <c r="D32" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5">
       <c r="A33" s="7" t="s">
         <v>694</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C33" s="12">
         <v>45660</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="31.5">
-      <c r="A34" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="C34" s="12">
-        <v>45660</v>
+      <c r="D33" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -3404,10 +3597,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="工作表10"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:C11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3541,6 +3735,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="工作表11"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -3706,6 +3901,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="工作表12"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3791,6 +3987,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="工作表13"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4064,6 +4261,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49704D29-7DCB-47C7-B797-BF8338D42B37}">
+  <sheetPr codeName="工作表14"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4150,6 +4348,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635CBCB6-76AB-4388-84A5-08F2FC836270}">
+  <sheetPr codeName="工作表15"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4222,6 +4421,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="工作表16"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4304,6 +4504,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="工作表17"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4441,6 +4642,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="工作表18"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4539,6 +4741,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="工作表19"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4610,10 +4813,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9DB743-3980-4C71-94CD-1AA41EA3BF1C}">
-  <dimension ref="A1:D25"/>
+  <sheetPr codeName="工作表2"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:D25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="20.25" customHeight="1"/>
@@ -4971,6 +5175,174 @@
         <v>46</v>
       </c>
     </row>
+    <row r="26" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B26" t="s">
+        <v>535</v>
+      </c>
+      <c r="C26" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B27" t="s">
+        <v>536</v>
+      </c>
+      <c r="C27" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D27" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B28" t="s">
+        <v>537</v>
+      </c>
+      <c r="C28" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D28" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B29" t="s">
+        <v>538</v>
+      </c>
+      <c r="C29" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D29" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="B30" t="s">
+        <v>540</v>
+      </c>
+      <c r="C30" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D30" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="B31" t="s">
+        <v>541</v>
+      </c>
+      <c r="C31" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D31" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="B32" t="s">
+        <v>542</v>
+      </c>
+      <c r="C32" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D32" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C33" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D33" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B34" t="s">
+        <v>544</v>
+      </c>
+      <c r="C34" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D34" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B35" t="s">
+        <v>545</v>
+      </c>
+      <c r="C35" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D35" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B36" t="s">
+        <v>546</v>
+      </c>
+      <c r="C36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D36" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="B37" t="s">
+        <v>547</v>
+      </c>
+      <c r="C37" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D37" t="s">
+        <v>771</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4979,6 +5351,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="工作表20"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5066,6 +5439,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="工作表21"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5207,6 +5581,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="工作表22"/>
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5529,6 +5904,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr codeName="工作表23"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5612,6 +5988,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr codeName="工作表24"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5697,6 +6074,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr codeName="工作表25"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5802,6 +6180,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr codeName="工作表26"/>
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5961,6 +6340,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr codeName="工作表27"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6240,6 +6620,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr codeName="工作表28"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6319,6 +6700,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr codeName="工作表29"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6546,15 +6928,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA425B78-D26F-4D86-BF50-288BA8CC564B}">
-  <dimension ref="A1:D29"/>
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6675,25 +7060,27 @@
         <v>724</v>
       </c>
       <c r="B9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C9" s="12">
         <v>45751</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>724</v>
       </c>
       <c r="B10" t="s">
-        <v>559</v>
+        <v>782</v>
       </c>
       <c r="C10" s="12">
         <v>45751</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6701,13 +7088,13 @@
         <v>724</v>
       </c>
       <c r="B11" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C11" s="12">
         <v>45751</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>28</v>
+      <c r="D11" s="16">
+        <v>-13754</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6715,13 +7102,13 @@
         <v>724</v>
       </c>
       <c r="B12" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C12" s="12">
         <v>45751</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>29</v>
+      <c r="D12" s="16">
+        <v>-4145</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6729,41 +7116,41 @@
         <v>724</v>
       </c>
       <c r="B13" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C13" s="12">
         <v>45751</v>
       </c>
-      <c r="D13" s="16">
-        <v>-13754</v>
+      <c r="D13" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B14" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="C14" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D14" s="16">
-        <v>-4145</v>
+        <v>45660</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B15" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="C15" s="12">
-        <v>45751</v>
+        <v>45660</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6771,193 +7158,300 @@
         <v>722</v>
       </c>
       <c r="B16" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C16" s="12">
         <v>45660</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>722</v>
       </c>
       <c r="B17" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C17" s="12">
         <v>45660</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C18" s="12">
         <v>45660</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B19" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C19" s="12">
         <v>45660</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B20" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C20" s="12">
         <v>45660</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="16">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B21" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C21" s="12">
         <v>45660</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>724</v>
       </c>
       <c r="B22" t="s">
-        <v>557</v>
+        <v>782</v>
       </c>
       <c r="C22" s="12">
         <v>45660</v>
       </c>
-      <c r="D22" s="16">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>724</v>
       </c>
       <c r="B23" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C23" s="12">
         <v>45660</v>
       </c>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="16">
+        <v>-13754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>724</v>
       </c>
       <c r="B24" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C24" s="12">
         <v>45660</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>724</v>
       </c>
       <c r="B25" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C25" s="12">
         <v>45660</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" t="s">
         <v>724</v>
       </c>
-      <c r="B26" t="s">
-        <v>561</v>
-      </c>
-      <c r="C26" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D26" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>724</v>
       </c>
-      <c r="B27" t="s">
-        <v>562</v>
-      </c>
-      <c r="C27" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D27" s="16">
-        <v>-13754</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C27" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D27" s="19">
+        <v>334860</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="31.5">
       <c r="A28" t="s">
         <v>724</v>
       </c>
-      <c r="B28" t="s">
-        <v>563</v>
-      </c>
-      <c r="C28" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D28" s="19">
+        <v>-13754</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5">
       <c r="A29" t="s">
-        <v>725</v>
-      </c>
-      <c r="B29" t="s">
-        <v>564</v>
-      </c>
-      <c r="C29" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>55</v>
+        <v>724</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D29" s="19">
+        <v>5833</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>724</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D30" s="19">
+        <v>865508</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D31" s="19">
+        <v>107693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D32" s="19">
+        <v>101046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5">
+      <c r="A33" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C33" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D33" s="19">
+        <v>14286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5">
+      <c r="A34" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="C34" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D34" s="19">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="47.25">
+      <c r="A35" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C35" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D35" s="19">
+        <v>356144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="C36" s="6">
+        <v>45380</v>
+      </c>
+      <c r="D36" s="19">
+        <v>84619</v>
       </c>
     </row>
   </sheetData>
@@ -6968,6 +7462,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr codeName="工作表30"/>
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7127,6 +7622,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr codeName="工作表31"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7218,6 +7714,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <sheetPr codeName="工作表32"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7453,6 +7950,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <sheetPr codeName="工作表33"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7535,6 +8033,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <sheetPr codeName="工作表34"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7658,6 +8157,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <sheetPr codeName="工作表35"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7814,6 +8314,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBEE663-4C92-4ED8-B4E5-1AA7728EAD98}">
+  <sheetPr codeName="工作表36"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7827,17 +8328,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B79ED6-B575-4841-9FC7-B4F657376EFF}">
-  <dimension ref="A1:D65"/>
+  <sheetPr codeName="工作表4"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:D65"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="19"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1">
@@ -7850,7 +8353,7 @@
       <c r="C1" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>679</v>
       </c>
     </row>
@@ -7864,7 +8367,7 @@
       <c r="C2" s="12">
         <v>45751</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>-259734</v>
       </c>
     </row>
@@ -7878,7 +8381,7 @@
       <c r="C3" s="12">
         <v>45751</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -7892,7 +8395,7 @@
       <c r="C4" s="12">
         <v>45751</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7906,7 +8409,7 @@
       <c r="C5" s="12">
         <v>45751</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>-1369</v>
       </c>
     </row>
@@ -7920,7 +8423,7 @@
       <c r="C6" s="12">
         <v>45751</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7934,7 +8437,7 @@
       <c r="C7" s="12">
         <v>45751</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7948,7 +8451,7 @@
       <c r="C8" s="12">
         <v>45751</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7962,7 +8465,7 @@
       <c r="C9" s="12">
         <v>45751</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>-783</v>
       </c>
     </row>
@@ -7976,7 +8479,7 @@
       <c r="C10" s="12">
         <v>45751</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7990,7 +8493,7 @@
       <c r="C11" s="12">
         <v>45751</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8004,7 +8507,7 @@
       <c r="C12" s="12">
         <v>45751</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>-4736</v>
       </c>
     </row>
@@ -8018,7 +8521,7 @@
       <c r="C13" s="12">
         <v>45751</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>-11279</v>
       </c>
     </row>
@@ -8032,7 +8535,7 @@
       <c r="C14" s="12">
         <v>45751</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>-1827</v>
       </c>
     </row>
@@ -8046,7 +8549,7 @@
       <c r="C15" s="12">
         <v>45751</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>-1919</v>
       </c>
     </row>
@@ -8060,7 +8563,7 @@
       <c r="C16" s="12">
         <v>45751</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8074,7 +8577,7 @@
       <c r="C17" s="12">
         <v>45751</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>-25168</v>
       </c>
     </row>
@@ -8088,7 +8591,7 @@
       <c r="C18" s="12">
         <v>45751</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>-8968</v>
       </c>
     </row>
@@ -8102,7 +8605,7 @@
       <c r="C19" s="12">
         <v>45751</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8116,7 +8619,7 @@
       <c r="C20" s="12">
         <v>45751</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>-7180</v>
       </c>
     </row>
@@ -8130,7 +8633,7 @@
       <c r="C21" s="12">
         <v>45751</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>0</v>
       </c>
     </row>
@@ -8144,7 +8647,7 @@
       <c r="C22" s="12">
         <v>45751</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>0</v>
       </c>
     </row>
@@ -8158,7 +8661,7 @@
       <c r="C23" s="12">
         <v>45751</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>-7180</v>
       </c>
     </row>
@@ -8172,7 +8675,7 @@
       <c r="C24" s="12">
         <v>45751</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8186,7 +8689,7 @@
       <c r="C25" s="12">
         <v>45751</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>-27000</v>
       </c>
     </row>
@@ -8200,7 +8703,7 @@
       <c r="C26" s="12">
         <v>45751</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>-6071</v>
       </c>
     </row>
@@ -8214,7 +8717,7 @@
       <c r="C27" s="12">
         <v>45751</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>0</v>
       </c>
     </row>
@@ -8228,7 +8731,7 @@
       <c r="C28" s="12">
         <v>45751</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>-580</v>
       </c>
     </row>
@@ -8242,7 +8745,7 @@
       <c r="C29" s="12">
         <v>45751</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8256,7 +8759,7 @@
       <c r="C30" s="12">
         <v>45751</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8270,7 +8773,7 @@
       <c r="C31" s="12">
         <v>45751</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>-3073</v>
       </c>
     </row>
@@ -8284,22 +8787,22 @@
       <c r="C32" s="12">
         <v>45751</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.75" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>760</v>
+        <v>726</v>
       </c>
       <c r="C33" s="12">
-        <v>45751</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>32</v>
+        <v>45380</v>
+      </c>
+      <c r="D33" s="18">
+        <v>-3496</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.75" customHeight="1">
@@ -8307,13 +8810,13 @@
         <v>727</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
       <c r="C34" s="12">
         <v>45380</v>
       </c>
-      <c r="D34" s="19">
-        <v>-3496</v>
+      <c r="D34" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.75" customHeight="1">
@@ -8321,13 +8824,13 @@
         <v>727</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>684</v>
+        <v>728</v>
       </c>
       <c r="C35" s="12">
         <v>45380</v>
       </c>
-      <c r="D35" s="19">
-        <v>0</v>
+      <c r="D35" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.75" customHeight="1">
@@ -8335,13 +8838,13 @@
         <v>727</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C36" s="12">
         <v>45380</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>145</v>
+      <c r="D36" s="18">
+        <v>-20</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.75" customHeight="1">
@@ -8349,13 +8852,13 @@
         <v>727</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C37" s="12">
         <v>45380</v>
       </c>
-      <c r="D37" s="19">
-        <v>-20</v>
+      <c r="D37" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.75" customHeight="1">
@@ -8363,13 +8866,13 @@
         <v>727</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C38" s="12">
         <v>45380</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>129</v>
+      <c r="D38" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.75" customHeight="1">
@@ -8377,13 +8880,13 @@
         <v>727</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C39" s="12">
         <v>45380</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>146</v>
+      <c r="D39" s="18" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.75" customHeight="1">
@@ -8391,13 +8894,13 @@
         <v>727</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C40" s="12">
         <v>45380</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>147</v>
+      <c r="D40" s="18">
+        <v>-1063</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21.75" customHeight="1">
@@ -8405,13 +8908,13 @@
         <v>727</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C41" s="12">
         <v>45380</v>
       </c>
-      <c r="D41" s="19">
-        <v>-1063</v>
+      <c r="D41" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21.75" customHeight="1">
@@ -8419,13 +8922,13 @@
         <v>727</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C42" s="12">
         <v>45380</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>148</v>
+      <c r="D42" s="18" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21.75" customHeight="1">
@@ -8433,13 +8936,13 @@
         <v>727</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C43" s="12">
         <v>45380</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>149</v>
+      <c r="D43" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21.75" customHeight="1">
@@ -8447,13 +8950,13 @@
         <v>727</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C44" s="12">
         <v>45380</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>150</v>
+      <c r="D44" s="18" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21.75" customHeight="1">
@@ -8461,13 +8964,13 @@
         <v>727</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C45" s="12">
         <v>45380</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>151</v>
+      <c r="D45" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21.75" customHeight="1">
@@ -8475,13 +8978,13 @@
         <v>727</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C46" s="12">
         <v>45380</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>152</v>
+      <c r="D46" s="18">
+        <v>-757</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21.75" customHeight="1">
@@ -8489,13 +8992,13 @@
         <v>727</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C47" s="12">
         <v>45380</v>
       </c>
-      <c r="D47" s="19">
-        <v>-757</v>
+      <c r="D47" s="18">
+        <v>-37266</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21.75" customHeight="1">
@@ -8503,13 +9006,13 @@
         <v>727</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C48" s="12">
         <v>45380</v>
       </c>
-      <c r="D48" s="19">
-        <v>-37266</v>
+      <c r="D48" s="18">
+        <v>-2382</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21.75" customHeight="1">
@@ -8517,13 +9020,13 @@
         <v>727</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C49" s="12">
         <v>45380</v>
       </c>
-      <c r="D49" s="19">
-        <v>-2382</v>
+      <c r="D49" s="18">
+        <v>-1270</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21.75" customHeight="1">
@@ -8531,27 +9034,27 @@
         <v>727</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C50" s="12">
         <v>45380</v>
       </c>
-      <c r="D50" s="19">
-        <v>-1270</v>
+      <c r="D50" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21.75" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C51" s="12">
         <v>45380</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>153</v>
+      <c r="D51" s="18">
+        <v>-9907</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="21.75" customHeight="1">
@@ -8559,13 +9062,13 @@
         <v>745</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C52" s="12">
         <v>45380</v>
       </c>
-      <c r="D52" s="19">
-        <v>-9907</v>
+      <c r="D52" s="18">
+        <v>-5041</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="21.75" customHeight="1">
@@ -8573,13 +9076,13 @@
         <v>745</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C53" s="12">
         <v>45380</v>
       </c>
-      <c r="D53" s="19">
-        <v>-5041</v>
+      <c r="D53" s="18">
+        <v>-350</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="21.75" customHeight="1">
@@ -8587,27 +9090,27 @@
         <v>745</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C54" s="12">
         <v>45380</v>
       </c>
-      <c r="D54" s="19">
-        <v>-350</v>
+      <c r="D54" s="18">
+        <v>-15298</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21.75" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C55" s="12">
         <v>45380</v>
       </c>
-      <c r="D55" s="19">
-        <v>-15298</v>
+      <c r="D55" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21.75" customHeight="1">
@@ -8615,13 +9118,13 @@
         <v>750</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C56" s="12">
         <v>45380</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>154</v>
+      <c r="D56" s="18">
+        <v>-48000</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21.75" customHeight="1">
@@ -8629,13 +9132,13 @@
         <v>750</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C57" s="12">
         <v>45380</v>
       </c>
-      <c r="D57" s="19">
-        <v>-48000</v>
+      <c r="D57" s="18">
+        <v>-3571</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21.75" customHeight="1">
@@ -8643,13 +9146,13 @@
         <v>750</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C58" s="12">
         <v>45380</v>
       </c>
-      <c r="D58" s="19">
-        <v>-3571</v>
+      <c r="D58" s="18">
+        <v>-25000</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21.75" customHeight="1">
@@ -8657,13 +9160,13 @@
         <v>750</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C59" s="12">
         <v>45380</v>
       </c>
-      <c r="D59" s="19">
-        <v>-25000</v>
+      <c r="D59" s="18">
+        <v>-1315</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21.75" customHeight="1">
@@ -8671,27 +9174,27 @@
         <v>750</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C60" s="12">
         <v>45380</v>
       </c>
-      <c r="D60" s="19">
-        <v>-1315</v>
+      <c r="D60" s="18">
+        <v>-7886</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21.75" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C61" s="12">
         <v>45380</v>
       </c>
-      <c r="D61" s="19">
-        <v>-7886</v>
+      <c r="D61" s="18">
+        <v>-227</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21.75" customHeight="1">
@@ -8699,13 +9202,13 @@
         <v>757</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C62" s="12">
         <v>45380</v>
       </c>
-      <c r="D62" s="19">
-        <v>-227</v>
+      <c r="D62" s="18">
+        <v>-14059</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21.75" customHeight="1">
@@ -8713,54 +9216,490 @@
         <v>757</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C63" s="12">
         <v>45380</v>
       </c>
-      <c r="D63" s="19">
-        <v>-14059</v>
+      <c r="D63" s="18" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21.75" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="C64" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>155</v>
+        <v>809</v>
+      </c>
+      <c r="C64" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D64" s="19">
+        <v>6512</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="21.75" customHeight="1">
       <c r="A65" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C65" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D65" s="19">
+        <v>83566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A66" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="C66" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D66" s="19">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A67" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="C67" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D67" s="19">
+        <v>9606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A68" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C68" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D68" s="19">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A69" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C69" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D69" s="19">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A70" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="C70" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D70" s="19">
+        <v>-4334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A71" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C71" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D71" s="19">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A72" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="C72" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D72" s="7">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A73" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C73" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D73" s="19">
+        <v>-23310</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A74" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="C74" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D74" s="19">
+        <v>10372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A75" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C75" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D75" s="19">
+        <v>-26503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A76" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C76" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D76" s="19">
+        <v>-11168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A77" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C77" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D77" s="19">
+        <v>48463</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A78" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="C78" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D78" s="19">
+        <v>23234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A79" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C79" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D79" s="19">
+        <v>-2837</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A80" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C80" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D80" s="19">
+        <v>131832</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="39" customHeight="1">
+      <c r="A81" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="C81" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D81" s="19">
+        <v>-25785</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A82" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C82" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D82" s="19">
+        <v>-1118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A83" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="C83" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D83" s="19">
+        <v>-5344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A84" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="C84" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D84" s="19">
+        <v>-44040</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A85" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C85" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D85" s="19">
+        <v>-76287</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A86" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="C86" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D86" s="19">
+        <v>189000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="C87" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D87" s="19">
+        <v>-406000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A88" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="C88" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D88" s="19">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A89" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C89" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D89" s="19">
+        <v>-19286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A90" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C90" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D90" s="19">
+        <v>-25000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A91" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C91" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D91" s="19">
+        <v>-2608</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A92" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="C92" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D92" s="19">
+        <v>-3434</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A93" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C93" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D93" s="19">
+        <v>-67328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A94" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="C65" s="12">
-        <v>45380</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>156</v>
+      <c r="B94" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="C94" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D94" s="7">
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A95" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C95" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D95" s="19">
+        <v>-11968</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A96" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C96" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D96" s="19">
+        <v>83642</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="工作表5"/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -9577,6 +10516,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="工作表6"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10183,6 +11123,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61BD0DD-788F-4944-9E3A-3AB5E7FF06DB}">
+  <sheetPr codeName="工作表7"/>
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10740,10 +11681,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I65"/>
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I65" sqref="F1:I65"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11945,7 +12887,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="6:9" ht="47.25">
+    <row r="65" spans="1:9" ht="47.25">
       <c r="F65" s="7" t="s">
         <v>757</v>
       </c>
@@ -11957,6 +12899,48 @@
       </c>
       <c r="I65" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A67" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C67" s="12">
+        <v>45751</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A68" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C68" s="12">
+        <v>45380</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A69" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C69" s="6">
+        <v>45660</v>
+      </c>
+      <c r="D69" s="19">
+        <v>71674</v>
       </c>
     </row>
   </sheetData>
@@ -11967,6 +12951,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DA4D1A-8A63-40F2-B0D3-B01132CB99F2}">
+  <sheetPr codeName="工作表9"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
